--- a/databases/number-plate-codes.xlsx
+++ b/databases/number-plate-codes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Harvest\projects\cars-restriction\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Harvest\projects\Pandemic-holiday-restriction\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD03D2-5C70-4B6E-80F3-56D5B4D1F546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480A8D9-196D-4161-B7AA-9F68DEE44A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{721FDD99-8424-4B9D-A8F8-859AFE7567C7}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Kabupaten Karawang</t>
   </si>
   <si>
-    <t>Sebagian Kabupaten Bekasi &amp; Subang</t>
-  </si>
-  <si>
     <t>Kabupaten Sumedang</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>Subkode</t>
+  </si>
+  <si>
+    <t>Subang</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791EC9F3-7DEF-4CC3-9080-D14F0F9D4989}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1">
@@ -688,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1">
@@ -699,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1">
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1">
@@ -721,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1">
@@ -732,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1">
@@ -743,10 +743,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1">
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>REPLACE("B – B", 1, 4, "")</f>
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>REPLACE("B – C, V", 1, 4, "")</f>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>REPLACE("B – E, Z", 1, 4, "")</f>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>REPLACE("B – F", 1, 4, "")</f>
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>REPLACE("B – K", 1, 4, "")</f>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>REPLACE("B – P", 1, 4, "")</f>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>REPLACE("B – S", 1, 4, "")</f>
@@ -838,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>REPLACE("B – T", 1, 4, "")</f>
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>REPLACE("B – U", 1, 4, "")</f>
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>REPLACE("B – W", 1, 4, "")</f>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>REPLACE("D – A, B, C, D, E, F, M, N, O, P, R, G, H, I, J, K, L", 1, 4, "")</f>
@@ -886,10 +886,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1">
@@ -897,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1">
@@ -908,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1">
@@ -919,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1">
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1">
@@ -941,10 +941,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1">
@@ -952,10 +952,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1">
@@ -963,10 +963,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1">
@@ -974,10 +974,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1">
@@ -985,10 +985,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1">
@@ -996,10 +996,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
@@ -1007,10 +1007,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1">
@@ -1018,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1">
@@ -1029,10 +1029,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1">
@@ -1040,98 +1040,98 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1">

--- a/databases/number-plate-codes.xlsx
+++ b/databases/number-plate-codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Harvest\projects\Pandemic-holiday-restriction\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480A8D9-196D-4161-B7AA-9F68DEE44A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E947E95-3F58-4375-AA75-3AED480F49BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{721FDD99-8424-4B9D-A8F8-859AFE7567C7}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
-    <t>Wilayah</t>
-  </si>
-  <si>
     <t>Kota Serang</t>
   </si>
   <si>
@@ -252,13 +249,16 @@
     <t>X, Y, Z</t>
   </si>
   <si>
-    <t>Kode Wilayah</t>
-  </si>
-  <si>
-    <t>Subkode</t>
-  </si>
-  <si>
     <t>Subang</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Region Code</t>
+  </si>
+  <si>
+    <t>Subcode</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791EC9F3-7DEF-4CC3-9080-D14F0F9D4989}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -674,87 +674,87 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>REPLACE("B – B", 1, 4, "")</f>
@@ -763,10 +763,10 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>REPLACE("B – C, V", 1, 4, "")</f>
@@ -775,10 +775,10 @@
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>REPLACE("B – E, Z", 1, 4, "")</f>
@@ -787,10 +787,10 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>REPLACE("B – F", 1, 4, "")</f>
@@ -799,10 +799,10 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>REPLACE("B – K", 1, 4, "")</f>
@@ -811,10 +811,10 @@
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>REPLACE("B – P", 1, 4, "")</f>
@@ -823,10 +823,10 @@
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>REPLACE("B – S", 1, 4, "")</f>
@@ -835,10 +835,10 @@
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>REPLACE("B – T", 1, 4, "")</f>
@@ -847,10 +847,10 @@
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>REPLACE("B – U", 1, 4, "")</f>
@@ -859,10 +859,10 @@
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>REPLACE("B – W", 1, 4, "")</f>
@@ -871,10 +871,10 @@
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>REPLACE("D – A, B, C, D, E, F, M, N, O, P, R, G, H, I, J, K, L", 1, 4, "")</f>
@@ -883,255 +883,255 @@
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1">
